--- a/medicine/Œil et vue/Hypotrichose_avec_dégénérescence_maculaire_juvénile/Hypotrichose_avec_dégénérescence_maculaire_juvénile.xlsx
+++ b/medicine/Œil et vue/Hypotrichose_avec_dégénérescence_maculaire_juvénile/Hypotrichose_avec_dégénérescence_maculaire_juvénile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
+          <t>Hypotrichose_avec_dégénérescence_maculaire_juvénile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hypotrichose avec dégénérescence maculaire juvénile (HDMJ) est une maladie congénitale extrêmement rare, caractérisée par une pousse clairsemée de cheveux dès la naissance accompagnée d’une dégénérescence maculaire progressive pouvant conduire jusqu’à la cécité complète.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
+          <t>Hypotrichose_avec_dégénérescence_maculaire_juvénile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dénombrement total est estimé à moins d'un cas sur 1 000 000. Seuls une cinquantaine de cas ont été rapportés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dénombrement total est estimé à moins d'un cas sur 1 000 000. Seuls une cinquantaine de cas ont été rapportés.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
+          <t>Hypotrichose_avec_dégénérescence_maculaire_juvénile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’HDMJ est transmise de manière autosomique-récessive. Des mutations du gène CDH3, lequel code la protéine Cadherin-3, en seraient la cause. La P-Cadherin est une protéine agglomérante responsable dans certains tissus du scellement des cellules. Il en découle une hétérozygotie complexe.  
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
+          <t>Hypotrichose_avec_dégénérescence_maculaire_juvénile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pousse des poils est au niveau du cuir chevelu très clairsemée contrairement au reste du corps où elle progresse normalement. La dégénérescence maculaire est progressive et peut conduire à une perte complète de la vue. L’état de santé général des personnes affectées n’est toutefois pas touché ce qui leur accorde une espérance de vie normale.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
+          <t>Hypotrichose_avec_dégénérescence_maculaire_juvénile</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,13 +622,13 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fond de l’œil.
 Un examen ophtalmologique est nécessaire pour identifier les lésions de la rétine. L’étendue des dommages de la rétine peut être précisée à l’aide d’une angiographie en fluorescence ainsi que d’une tomographie à cohérence optique. En sus, il est possible d’avoir également recours à des examens électro physiologiques tels qu’ERG (éctinogramme électronique) et mfERG (éctinogramme multifocal).
 Un diagnostic certain n’est possible qu’avec un diagnostic en génétique moléculaire effectué dans le cadre d’un conseil en génétique humaine.
-Diagnostic différentiel
-À ne pas confondre avec des cas d’anomalies capillaires dus à une dysplasie ectodermique. Des modifications du gène CDH3 peuvent également apparaître avec le syndrome EEM .
 </t>
         </is>
       </c>
@@ -621,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
+          <t>Hypotrichose_avec_dégénérescence_maculaire_juvénile</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,10 +654,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À ne pas confondre avec des cas d’anomalies capillaires dus à une dysplasie ectodermique. Des modifications du gène CDH3 peuvent également apparaître avec le syndrome EEM .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypotrichose_avec_dégénérescence_maculaire_juvénile</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe pas de traitement curatif spécifique. 
 Par contre, le grand nombre d’études faites en génothérapie (thérapie génique), saut d’exon et CRISPR-Cas9 nous permettent d’espérer. Une connaissance plus approfondie dans le domaine de la mutation génique offrirait d’autres possibilités que le génoremplacement,  qui  pour certains groupes de personnes affectées et diagnostiquées « mutation non-sens » pourrait conduire à une modification de leur séquence DNA et provoquer un codon-stop (interruption de la chaîne dans la biosynthèse des protéines). La conséquence est une protéine plus courte, dysfonctionnelle ou sans utilité.
@@ -650,31 +707,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypotrichose_avec_dégénérescence_maculaire_juvénile</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypotrichose_avec_d%C3%A9g%C3%A9n%C3%A9rescence_maculaire_juv%C3%A9nile</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La première description du syndrome a été faite en 1935 par le docteur allemand Hans Wagner.
 </t>
